--- a/results_exact/11_transbordo_porto.xlsx
+++ b/results_exact/11_transbordo_porto.xlsx
@@ -444,39 +444,39 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>ILHÉUS, BA, Brazil</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>VITÓRIA, ES, Brazil</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>SANTOS, SP, Brazil</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>SÃO LUIZ, MA, Brazil</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ILHÉUS, BA, Brazil</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FIGUEIRÓPOLIS, TO, Brazil</t>
+          <t>IPAMERI,GO, Brazil</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>178404.652</v>
       </c>
       <c r="D2" t="n">
-        <v>225093.2268143583</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -485,11 +485,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IPAMERI,GO, Brazil</t>
+          <t>FIGUEIRÓPOLIS, TO, Brazil</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>178404.652</v>
+        <v>465403.44</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>997347.1491148776</v>
       </c>
     </row>
     <row r="4">
@@ -511,48 +511,48 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>97567.16511487745</v>
       </c>
       <c r="D4" t="n">
-        <v>729132.056</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>631564.8908851225</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RIO VERDE, GO, Brazil</t>
+          <t>ANÁPOLIS, GO, Brazil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>147377.756</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1707695.064</v>
+        <v>294755.512</v>
       </c>
       <c r="D5" t="n">
-        <v>510727.9999999993</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>465403.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SÃO SIMÃO, GO, Brazil</t>
+          <t>RIO VERDE, GO, Brazil</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>736888.7800000001</v>
+        <v>49807.25488512265</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>2781397.005114877</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>163955.4211856417</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -580,17 +580,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ANÁPOLIS, GO, Brazil</t>
+          <t>SÃO SIMÃO, GO, Brazil</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>294755.512</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>736888.7800000001</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ILHÉUS, BA, Brazil</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>VITÓRIA, ES, Brazil</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>SANTOS, SP, Brazil</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>SÃO LUIZ, MA, Brazil</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ILHÉUS, BA, Brazil</t>
         </is>
       </c>
     </row>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>19892118.698</v>
       </c>
       <c r="C2" t="n">
-        <v>38403155.42679767</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>30437617.67772001</v>
+        <v>51664435.8744</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>109389035.3149198</v>
       </c>
     </row>
     <row r="4">
@@ -670,27 +670,27 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>14374570.4363749</v>
       </c>
       <c r="C4" t="n">
-        <v>124397220.07416</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>74518341.4755356</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>25144118.95116</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>199680783.8335201</v>
+        <v>36322721.74376</v>
       </c>
       <c r="C5" t="n">
-        <v>87135304.07999989</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>79402480.89840001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -698,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>68059047.72080001</v>
+        <v>7032286.317230466</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>260950667.0198778</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>19171307.39923708</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -723,13 +723,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>50288237.90232001</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>60159599.99920001</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -757,22 +757,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ILHÉUS, BA, Brazil</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>VITÓRIA, ES, Brazil</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>SANTOS, SP, Brazil</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>SÃO LUIZ, MA, Brazil</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ILHÉUS, BA, Brazil</t>
         </is>
       </c>
     </row>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>4946632922.190081</v>
       </c>
       <c r="C2" t="n">
-        <v>6105383665.467291</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4946632922.190081</v>
+        <v>12827612504.484</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>27051844603.16212</v>
       </c>
     </row>
     <row r="4">
@@ -809,27 +809,27 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>3859544355.524601</v>
       </c>
       <c r="C4" t="n">
-        <v>21777278769.3744</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>18863201222.02231</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5530674524.963199</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>37374187246.93801</v>
+        <v>9313616874.408241</v>
       </c>
       <c r="C5" t="n">
-        <v>21518186172.63997</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>17410105087.6872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>13158070277.875</v>
+        <v>1869126815.524974</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>60872959504.69292</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>3686529447.588094</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9313616874.408241</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>13158070277.875</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1319733769.006292</v>
+        <v>1185716706.325242</v>
       </c>
       <c r="B2" t="n">
-        <v>169768050421039.5</v>
+        <v>153424517497114.9</v>
       </c>
     </row>
   </sheetData>
